--- a/hardware/docs/bom.xlsx
+++ b/hardware/docs/bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nordic\Desktop\WorkProjects\stm32f334-buck-boost\hardware\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8BB62D4-1993-4233-A90F-DB350E60FF04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1957E0EB-4414-47C6-BAE1-9132CD5E9002}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{90159FA9-0635-4C52-A483-E8DB59EDDDD3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="168">
   <si>
     <t>Designator</t>
   </si>
@@ -272,9 +272,6 @@
     <t>https://www.digikey.com/product-detail/en/yageo/RC0603JR-0710RL/311-10GRCT-ND/729646</t>
   </si>
   <si>
-    <t>R3, R4, R7, R8, R9, R10, R11, R12, R13, R14, R35, R42, R43, R46</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
@@ -522,6 +519,24 @@
   </si>
   <si>
     <t>LED, 20 mA, 2V, 0603, -55...+150°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0603JR-07120KL/311-120KGRCT-ND/729654</t>
+  </si>
+  <si>
+    <t>R3, R4, R7, R8, R11, R12, R13, R14, R35, R42, R43, R46</t>
+  </si>
+  <si>
+    <t>120k</t>
+  </si>
+  <si>
+    <t>R9, R10</t>
+  </si>
+  <si>
+    <t>Resistor film, 120k, ±5%, 0603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>RC0603JR-07120KL</t>
   </si>
 </sst>
 </file>
@@ -594,7 +609,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -627,15 +642,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -656,17 +662,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -725,6 +720,19 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -746,57 +754,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1114,10 +1120,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,25 +1138,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1158,22 +1164,22 @@
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1181,22 +1187,22 @@
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1204,22 +1210,22 @@
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1227,22 +1233,22 @@
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="2">
         <v>5</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1250,22 +1256,22 @@
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1273,22 +1279,22 @@
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="2">
         <v>7</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1296,22 +1302,22 @@
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1319,20 +1325,20 @@
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1340,20 +1346,20 @@
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1361,20 +1367,20 @@
       <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1382,20 +1388,20 @@
       <c r="A12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1403,20 +1409,20 @@
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1424,22 +1430,22 @@
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1447,22 +1453,22 @@
       <c r="A15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1470,22 +1476,22 @@
       <c r="A16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>73</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1493,375 +1499,398 @@
       <c r="A17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="2">
         <v>4</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="2">
+        <v>12</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="2">
-        <v>14</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>84</v>
+        <v>165</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>86</v>
+      <c r="F19" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="2">
-        <v>3</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>89</v>
+        <v>2</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="2">
-        <v>4</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>93</v>
+        <v>3</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="2">
-        <v>14</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>97</v>
+        <v>4</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>101</v>
+        <v>14</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>64</v>
+        <v>99</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>106</v>
+      <c r="F24" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>24</v>
+        <v>103</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>110</v>
+        <v>2</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>50</v>
+        <v>108</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="E26" s="2">
-        <v>3</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>114</v>
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="B27" s="9"/>
       <c r="C27" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E27" s="2">
-        <v>2</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>118</v>
+        <v>3</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="11"/>
+        <v>114</v>
+      </c>
+      <c r="B28" s="9"/>
       <c r="C28" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" s="11"/>
+        <v>118</v>
+      </c>
+      <c r="B29" s="9"/>
       <c r="C29" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="E29" s="2">
-        <v>3</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>124</v>
+        <v>1</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="11"/>
+        <v>121</v>
+      </c>
+      <c r="B30" s="9"/>
       <c r="C30" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="E30" s="2">
-        <v>4</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>129</v>
+        <v>3</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="11"/>
+        <v>124</v>
+      </c>
+      <c r="B31" s="9"/>
       <c r="C31" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="E31" s="2">
         <v>4</v>
       </c>
-      <c r="F31" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>134</v>
+      <c r="F31" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="3" t="s">
+      <c r="D33" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="2">
+      <c r="G33" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="6">
         <v>1</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="13" t="s">
+      <c r="F34" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="7">
-        <v>1</v>
-      </c>
-      <c r="F33" s="15" t="s">
+      <c r="G34" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/docs/bom.xlsx
+++ b/hardware/docs/bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nordic\Desktop\WorkProjects\stm32f334-buck-boost\hardware\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1957E0EB-4414-47C6-BAE1-9132CD5E9002}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B019130E-5F4A-4E16-B0F5-8553FFDDBBC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{90159FA9-0635-4C52-A483-E8DB59EDDDD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1D893841-7659-43D9-8072-9D00D23441DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Buck-boost" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="144">
   <si>
     <t>Designator</t>
   </si>
@@ -68,10 +68,28 @@
     <t>Samsung</t>
   </si>
   <si>
+    <t>Ceramic capacitor, 0.47μF, X7R, ±10%, 25V, 805, -55...+125°C</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL21B474KAFNNNG/1276-6480-1-ND/5958108</t>
   </si>
   <si>
-    <t>C3, C4, C17, C18, C19, C20, C26, C27</t>
+    <t>C3, C4, C7, C8</t>
+  </si>
+  <si>
+    <t>10μF</t>
+  </si>
+  <si>
+    <t>CL32B106KAJNNNE</t>
+  </si>
+  <si>
+    <t>Ceramic capacitor, 10μF, X7R, ±10%, 25V, 1210, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL32B106KAJNNNE/1276-1807-1-ND/3889893</t>
+  </si>
+  <si>
+    <t>C5, C6, C13, C14, C15, C16, C24, C25</t>
   </si>
   <si>
     <t>1μF</t>
@@ -80,25 +98,13 @@
     <t>CL10B105KA8NNNC</t>
   </si>
   <si>
+    <t>Ceramic capacitor, 1μF, X7R, ±10%, 25V, 603, -55...+125°C</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B105KA8NNNC/1276-1184-1-ND/3889270</t>
   </si>
   <si>
-    <t>C5, C6, C7, C8, C9, C10</t>
-  </si>
-  <si>
-    <t>10μF</t>
-  </si>
-  <si>
-    <t>CL32B106KAJNNNE</t>
-  </si>
-  <si>
-    <t>Ceramic capacitor, 10μF, X7R, ±10%, 25V, 1210, -55...+125°C</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL32B106KAJNNNE/1276-1807-1-ND/3889893</t>
-  </si>
-  <si>
-    <t>C11, C12, C15, C16, C25</t>
+    <t>C9, C10, C11, C12, C23</t>
   </si>
   <si>
     <t>0.01μF</t>
@@ -110,22 +116,13 @@
     <t>Yageo</t>
   </si>
   <si>
+    <t>Ceramic capacitor, 0.01μF, X7R, ±10%, 50V, 603, -55...+125°C</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B103KB8NNNC/1276-1009-1-ND/3889095</t>
   </si>
   <si>
-    <t>C13, C14</t>
-  </si>
-  <si>
-    <t>470pF</t>
-  </si>
-  <si>
-    <t>CL10C471JB8NNNC</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10C471JB8NNNC/1276-1168-1-ND/3889254</t>
-  </si>
-  <si>
-    <t>C21, C22, C23, C24, C28, C31, C32</t>
+    <t>C17, C18, C19, C20, C21, C22, C26, C29, C30</t>
   </si>
   <si>
     <t>0.1μF</t>
@@ -134,10 +131,13 @@
     <t>CL10B104KB8WPND</t>
   </si>
   <si>
+    <t>Ceramic capacitor, 0.1μF, X7R, ±10%, 50V, 603, -55...+125°C</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B104KB8WPND/1276-CL10B104KB8WPNDCT-ND/11488014</t>
   </si>
   <si>
-    <t>C29, C30</t>
+    <t>C27, C28</t>
   </si>
   <si>
     <t>12pF</t>
@@ -146,76 +146,94 @@
     <t>CL10C120JB8NNNC</t>
   </si>
   <si>
+    <t>Ceramic capacitor, 12pF, NPO, ±10%, 50V, 603, -55...+125°C</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10C120JB8NNNC/1276-1254-1-ND/3889340</t>
   </si>
   <si>
     <t>D1, D2</t>
   </si>
   <si>
-    <t>FD2105M</t>
-  </si>
-  <si>
-    <t>Fortior Tech</t>
-  </si>
-  <si>
-    <t>Half-bridge gate driver, 40V, +1.2A/-1.8A, Complementary, supply 3...21V, -40...+125°C, 10-MSOP</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Others_Fortior-Tech-FD2105M_C328452.html</t>
+    <t>LN8323</t>
+  </si>
+  <si>
+    <t>Chipown</t>
+  </si>
+  <si>
+    <t>Half-bridge module, 2N channel, 100kHz, 6A, supply 4...30V, -40...+125°C, 8-SOIC-PAD</t>
+  </si>
+  <si>
+    <t>http://chipown.com/product.asp?id=416</t>
   </si>
   <si>
     <t>D3, D4</t>
   </si>
   <si>
-    <t>TSV991ILT</t>
+    <t>INA199A1DCKR</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>IC current monitor, ±1.5%, 50V/V, -0.3...+26V, -40...+125°C, SOT23-5</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/texas-instruments/INA199A1DCKR/296-27329-1-ND/2279290</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>AP3012KTR-G1</t>
+  </si>
+  <si>
+    <t>Diodes Incorporated</t>
+  </si>
+  <si>
+    <t>DC/DC boost converter, input 2.6...16V, 1.5MHz, output 3...29V, 0.5A, -40...+85°C, SOT23-5</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/diodes-incorporated/AP3012KTR-G1/AP3012KTR-G1DICT-ND/4505297</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>AP2204K-3.3TRG1</t>
+  </si>
+  <si>
+    <t>Linear voltage regulator, input 4...24V, 0.5V, output 3.3V, 0.15A, -40...+85°C, SOT23-6</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/diodes-incorporated/AP2204K-3.3TRG1/AP2204K-3.3TRG1DICT-ND/4505288</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>STM32F334C4T6</t>
   </si>
   <si>
     <t>STMicroelectronics</t>
   </si>
   <si>
-    <t>IC op amplifier, Rail-to-Rail, 20 MHz, 2.7...5.5V, -40...+125°C, SOT23-5</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/stmicroelectronics/TSV991ILT/497-6001-1-ND/1578484</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>AP3012KTR-G1</t>
-  </si>
-  <si>
-    <t>Diodes Incorporated</t>
-  </si>
-  <si>
-    <t>DC/DC boost converter, input 2.6...16V, 1.5MHz, output 3...29V, 0.5A, -40...+85°C, SOT23-5</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/diodes-incorporated/AP3012KTR-G1/AP3012KTR-G1DICT-ND/4505297</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>STM32F334C4T6</t>
-  </si>
-  <si>
     <t>IC microcontroller, 32-Bit, Cortex-M4, 72MHz, 16KB, 12KB, 2...3.6V, -40...+85°C, 48-LQFP</t>
   </si>
   <si>
     <t>https://www.digikey.com/products/en?keywords=STM32F334C4T6</t>
   </si>
   <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>AP2204K-3.3TRG1</t>
-  </si>
-  <si>
-    <t>Linear voltage regulator, input 4...24V, 0.5V, output 3.3V, 0.15A, -40...+85°C, SOT23-6</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/diodes-incorporated/AP2204K-3.3TRG1/AP2204K-3.3TRG1DICT-ND/4505288</t>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>AP2204K-5.0TRG1</t>
+  </si>
+  <si>
+    <t>Linear voltage regulator, input 4...24V, 0.5V, output 5V, 0.15A, -40...+85°C, SOT23-6</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/diodes-incorporated/AP2204K-5-0TRG1/AP2204K-5-0TRG1DICT-ND/4505289</t>
   </si>
   <si>
     <t>L1</t>
@@ -257,19 +275,13 @@
     <t>Murata Electronics</t>
   </si>
   <si>
+    <t>Fixed inductor, 10μH, ±20%, 603, 50mA, -55...+125°C</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/product-detail/en/murata-electronics-north-america/LQM18FN100M00D/490-4025-1-ND/1016285</t>
   </si>
   <si>
-    <t>R1, R2, R5, R6</t>
-  </si>
-  <si>
-    <t>10R</t>
-  </si>
-  <si>
-    <t>RC0603JR-0710RL</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0603JR-0710RL/311-10GRCT-ND/729646</t>
+    <t>R1, R2, R3, R4, R13, R15, R19, R20, R21</t>
   </si>
   <si>
     <t>10k</t>
@@ -278,10 +290,28 @@
     <t>RC0603JR-0710KL</t>
   </si>
   <si>
+    <t>Resistor film, 10k, ±5%, 603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0603JR-0710KL/311-10KGRCT-ND/729647</t>
   </si>
   <si>
-    <t>R15, R16</t>
+    <t>R5, R9</t>
+  </si>
+  <si>
+    <t>0R015</t>
+  </si>
+  <si>
+    <t>PE2512FKE7W0R015L</t>
+  </si>
+  <si>
+    <t>Resistor film, 0R015, ±1%, 2512, 2W, -55...+170°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/PE2512FKE7W0R015L/YAG2165CT-ND/5139613</t>
+  </si>
+  <si>
+    <t>R6, R7</t>
   </si>
   <si>
     <t>39k</t>
@@ -290,31 +320,55 @@
     <t>RC0603FR-0739KL</t>
   </si>
   <si>
+    <t>Resistor film, 39k, ±1%, 603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0603FR-0739KL/311-39-0KHRCT-ND/730142</t>
   </si>
   <si>
-    <t>R17, R18, R39</t>
+    <t>R8, R10</t>
+  </si>
+  <si>
+    <t>120R</t>
+  </si>
+  <si>
+    <t>RC0603JR-07120RL</t>
+  </si>
+  <si>
+    <t>Resistor film, 120R, ±5%, 603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0603JR-07120RL/311-120GRCT-ND/729653</t>
+  </si>
+  <si>
+    <t>R11, R12, R16</t>
   </si>
   <si>
     <t>RC0603FR-0710KL</t>
   </si>
   <si>
+    <t>Resistor film, 10k, ±1%, 603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0603FR-0710KL/311-10-0KHRCT-ND/729827</t>
   </si>
   <si>
-    <t>R19, R20, R33, R34</t>
-  </si>
-  <si>
-    <t>20k</t>
-  </si>
-  <si>
-    <t>RC0603FR-0720KL</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0603FR-0720KL/311-20-0KHRCT-ND/729987</t>
-  </si>
-  <si>
-    <t>R21, R22, R23, R24, R29, R30, R31, R32, R36, R37, R40, R41, R44, R45</t>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>110k</t>
+  </si>
+  <si>
+    <t>RC0603FR-07110KL</t>
+  </si>
+  <si>
+    <t>Resistor film, 110k, ±1%, 603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0603FR-07110KL/311-110KHRCT-ND/729852</t>
+  </si>
+  <si>
+    <t>R17, R18</t>
   </si>
   <si>
     <t>1k</t>
@@ -323,49 +377,13 @@
     <t>RC0603FR-071KL</t>
   </si>
   <si>
+    <t>Resistor film, 1k, ±1%, 603, 0.1W, -55...+125°C</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0603FR-071KL/311-1-00KHRCT-ND/729790</t>
   </si>
   <si>
-    <t>R25, R26</t>
-  </si>
-  <si>
-    <t>120R</t>
-  </si>
-  <si>
-    <t>RC0603JR-07120RL</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0603JR-07120RL/311-120GRCT-ND/729653</t>
-  </si>
-  <si>
-    <t>R27, R28</t>
-  </si>
-  <si>
-    <t>0R05</t>
-  </si>
-  <si>
-    <t>CRA2512-FZ-R050ELF</t>
-  </si>
-  <si>
-    <t>Resistor film, 0R05, ±1%, 2512, 3W, -55...+170°C</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/bourns-inc/CRA2512-FZ-R050ELF/CRA2512-FZ-R050ELFCT-ND/1775057</t>
-  </si>
-  <si>
-    <t>R38</t>
-  </si>
-  <si>
-    <t>110k</t>
-  </si>
-  <si>
-    <t>RC0603FR-07110KL</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0603FR-07110KL/311-110KHRCT-ND/729852</t>
-  </si>
-  <si>
-    <t>VD1, VD2, VD3</t>
+    <t>VD1</t>
   </si>
   <si>
     <t>B160S1F-7</t>
@@ -377,51 +395,33 @@
     <t>https://www.digikey.com/product-detail/en/diodes-incorporated/B160S1F-7/B160S1F-7DICT-ND/7784161</t>
   </si>
   <si>
-    <t>VD4, VD5</t>
-  </si>
-  <si>
-    <t>150060VS75000</t>
+    <t>VD2</t>
+  </si>
+  <si>
+    <t>150060BS75000</t>
   </si>
   <si>
     <t>Wurth</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/w-rth-elektronik/150060VS75000/732-4980-1-ND/4489904</t>
-  </si>
-  <si>
-    <t>VD6</t>
-  </si>
-  <si>
-    <t>150060BS75000</t>
+    <t>LED, 20mA, 3.2V, 603, -55...+150°C</t>
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/w-rth-elektronik/150060BS75000/732-4966-1-ND/4489893</t>
   </si>
   <si>
-    <t>VD7, VD8, VD9</t>
+    <t>VD3</t>
   </si>
   <si>
     <t>150060RS75000</t>
   </si>
   <si>
+    <t>LED, 20 mA, 2V, 603, -55...+150°C</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/product-detail/en/w-rth-elektronik/150060RS75000/732-4978-1-ND/4489899</t>
   </si>
   <si>
-    <t>VT1, VT2, VT3, VT4</t>
-  </si>
-  <si>
-    <t>BSC0904NSIATMA1</t>
-  </si>
-  <si>
-    <t>Infineon Technologies</t>
-  </si>
-  <si>
-    <t>MOSFET N-channel transistor, 30V, 20A, 17nC, 2.5W, 3.7mOhm, 1100pF, 8-TDSON, -55...+150°C</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/infineon-technologies/BSC0904NSIATMA1/BSC0904NSIATMA1CT-ND/3196475</t>
-  </si>
-  <si>
     <t>X1, X2, X3, X4</t>
   </si>
   <si>
@@ -465,78 +465,6 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/ecs-inc/ECS-80-12-33-JGN-TR/50-ECS-80-12-33-JGN-CT-ND/10478769</t>
-  </si>
-  <si>
-    <t>Ceramic capacitor, 0.47μF, X7R, ±10%, 25V, 0805, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Ceramic capacitor, 1μF, X7R, ±10%, 25V, 0603, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Ceramic capacitor, 0.01μF, X7R, ±10%, 50V, 0603, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Ceramic capacitor, 470pF, NPO, ±5%, 50V, 0603, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Ceramic capacitor, 0.1μF, X7R, ±10%, 50V, 0603, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Ceramic capacitor, 12pF, NPO, ±10%, 50V, 0603, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Fixed inductor, 10μH, ±20%, 0603, 50mA, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 10R, ±5%, 0603, 0.1W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 10k, ±5%, 0603, 0.1W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 39k, ±1%, 0603, 0.1W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 10k, ±1%, 0603, 0.1W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 20k, ±1%, 0603, 0.1W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 1k, ±1%, 0603, 0.1W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 120R, ±5%, 0603, 0.1W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>Resistor film, 110k, ±1%, 0603, 0.1W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>LED, 20mA, 2V, 0603, -55...+150°C</t>
-  </si>
-  <si>
-    <t>LED, 20mA, 3.2V, 0603, -55...+150°C</t>
-  </si>
-  <si>
-    <t>LED, 20 mA, 2V, 0603, -55...+150°C</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0603JR-07120KL/311-120KGRCT-ND/729654</t>
-  </si>
-  <si>
-    <t>R3, R4, R7, R8, R11, R12, R13, R14, R35, R42, R43, R46</t>
-  </si>
-  <si>
-    <t>120k</t>
-  </si>
-  <si>
-    <t>R9, R10</t>
-  </si>
-  <si>
-    <t>Resistor film, 120k, ±5%, 0603, 0.1W, -55...+125°C</t>
-  </si>
-  <si>
-    <t>RC0603JR-07120KL</t>
   </si>
 </sst>
 </file>
@@ -609,7 +537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -642,6 +570,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -662,6 +599,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -720,19 +668,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -754,55 +689,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1116,47 +1053,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A2E041-08D2-4D58-9A9E-1AB990AD0712}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA33434-258D-48B4-B5F1-201DFC021BC6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="88.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="82.42578125" customWidth="1"/>
     <col min="7" max="7" width="125.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1164,738 +1101,625 @@
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="14" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <v>8</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>6</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="E5" s="2">
         <v>5</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>25</v>
+      <c r="F5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E7" s="2">
-        <v>7</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B8" s="11"/>
       <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>37</v>
+      <c r="F8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="B9" s="11"/>
       <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>42</v>
+      <c r="F9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="B10" s="11"/>
       <c r="C10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="B11" s="11"/>
       <c r="C11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>52</v>
+      <c r="F11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="B12" s="11"/>
       <c r="C12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>45</v>
+        <v>59</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>56</v>
+      <c r="F12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="B13" s="11"/>
       <c r="C13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>50</v>
+        <v>64</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>60</v>
+      <c r="F13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>66</v>
+      <c r="F14" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>62</v>
+        <v>73</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>64</v>
+        <v>74</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>70</v>
+      <c r="F15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>62</v>
+        <v>77</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>74</v>
+      <c r="F16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>24</v>
+        <v>84</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="E17" s="2">
-        <v>4</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>78</v>
+        <v>9</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>24</v>
+        <v>89</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="E18" s="2">
-        <v>12</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>81</v>
+        <v>2</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>164</v>
+        <v>92</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>24</v>
+        <v>94</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>162</v>
+      <c r="F19" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>83</v>
+        <v>97</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>24</v>
+        <v>99</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>85</v>
+      <c r="F20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>79</v>
+        <v>102</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>24</v>
+        <v>103</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="E21" s="2">
         <v>3</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>88</v>
+      <c r="F21" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>90</v>
+        <v>106</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>24</v>
+        <v>108</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="E22" s="2">
-        <v>4</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>94</v>
+        <v>111</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>24</v>
+        <v>113</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="E23" s="2">
-        <v>14</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>96</v>
+        <v>2</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>98</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B24" s="11"/>
       <c r="C24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>24</v>
+        <v>117</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="E24" s="2">
-        <v>2</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>102</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B25" s="11"/>
       <c r="C25" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>64</v>
+        <v>121</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="E25" s="2">
-        <v>2</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>107</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B26" s="11"/>
       <c r="C26" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>24</v>
+        <v>126</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>109</v>
+      <c r="F26" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="9"/>
+        <v>129</v>
+      </c>
+      <c r="B27" s="11"/>
       <c r="C27" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>50</v>
+        <v>130</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="E27" s="2">
-        <v>3</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>113</v>
+        <v>4</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="B28" s="11"/>
       <c r="C28" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>116</v>
+        <v>135</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="E28" s="2">
-        <v>2</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="2">
         <v>1</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="2">
-        <v>3</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" s="2">
-        <v>4</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="2">
-        <v>4</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="F28" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="7">
         <v>1</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1</v>
-      </c>
-      <c r="F34" s="13" t="s">
+      <c r="F29" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G29" s="9" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="15" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="17" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/hardware/docs/bom.xlsx
+++ b/hardware/docs/bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nordic\Desktop\WorkProjects\stm32f334-buck-boost\hardware\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B019130E-5F4A-4E16-B0F5-8553FFDDBBC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A2E597-BF4A-4806-B70E-1816E57B0162}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1D893841-7659-43D9-8072-9D00D23441DE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="144">
   <si>
     <t>Designator</t>
   </si>
@@ -242,18 +242,9 @@
     <t>10μH</t>
   </si>
   <si>
-    <t>SRP1038C-100M</t>
-  </si>
-  <si>
     <t>Bourns</t>
   </si>
   <si>
-    <t>Fixed inductor, 10μH, ±20%, SRP1038C, 8.5A, -40...+125°C</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/bourns-inc/SRP1038C-100M/SRP1038C-100MCT-ND/10249149</t>
-  </si>
-  <si>
     <t>L2</t>
   </si>
   <si>
@@ -465,6 +456,15 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/ecs-inc/ECS-80-12-33-JGN-TR/50-ECS-80-12-33-JGN-CT-ND/10478769</t>
+  </si>
+  <si>
+    <t>SDR1006-100ML</t>
+  </si>
+  <si>
+    <t>Fixed inductor, 10μH, ±20%, SDR0805, 2.6A, -40...+125°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/bourns-inc/SDR1006-100ML/SDR1006-100MLCT-ND/2127202</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,76 +1369,76 @@
         <v>68</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>26</v>
@@ -1447,21 +1447,21 @@
         <v>9</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>26</v>
@@ -1470,21 +1470,21 @@
         <v>2</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>26</v>
@@ -1493,21 +1493,21 @@
         <v>2</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>26</v>
@@ -1516,21 +1516,21 @@
         <v>2</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>26</v>
@@ -1539,21 +1539,21 @@
         <v>3</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>26</v>
@@ -1562,21 +1562,21 @@
         <v>1</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>26</v>
@@ -1585,19 +1585,19 @@
         <v>2</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>51</v>
@@ -1606,115 +1606,115 @@
         <v>1</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E27" s="2">
         <v>4</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E29" s="7">
         <v>1</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
